--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Propagation_test/propagation.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Propagation_test/propagation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Propagation_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CDE1BE-C9CE-40AD-A3FB-20D56D037D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87625B5F-642A-4293-B36A-00E53E0BDCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,13 +33,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Propagation probability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共识成功的数量、测试次数20</t>
+    <t>共识成功的数量、测试次数0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10次)1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10次）2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（20次）3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（60次）4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,15 +87,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -79,12 +109,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,184 +431,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y19" sqref="I10:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F13" si="0">SUM(B7:E7)</f>
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="G7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="G9">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.7</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.8</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="G11">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H18">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <f>SUM(B29:K29)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <f>AVERAGE(B3:K3)</f>
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.95</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.9</v>
-      </c>
-      <c r="B5">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.5</v>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
